--- a/Database/Construction_Working_Services_Database(final) (1).xlsx
+++ b/Database/Construction_Working_Services_Database(final) (1).xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DB_Schema" sheetId="2" r:id="rId1"/>
-    <sheet name="DB_Schema (2)" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>Project Name</t>
   </si>
@@ -113,9 +112,6 @@
     <t>review_id(pk)</t>
   </si>
   <si>
-    <t>provider_charges</t>
-  </si>
-  <si>
     <t>booking_tbl</t>
   </si>
   <si>
@@ -134,18 +130,9 @@
     <t>provider_id (F)</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
-    <t>no_of_service_per_day</t>
-  </si>
-  <si>
-    <t>is_verified</t>
-  </si>
-  <si>
     <t>customer_address</t>
   </si>
   <si>
@@ -158,12 +145,6 @@
     <t>service_time</t>
   </si>
   <si>
-    <t>service_id (F)</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>total_amount</t>
   </si>
   <si>
@@ -189,9 +170,6 @@
   </si>
   <si>
     <t>service_id (pk)</t>
-  </si>
-  <si>
-    <t>Raised , Resolved</t>
   </si>
   <si>
     <t>provider_city</t>
@@ -366,7 +344,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -399,9 +377,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -724,7 +699,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -734,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
@@ -762,242 +737,242 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>67</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>56</v>
+      <c r="C8" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>56</v>
+      <c r="C9" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>57</v>
+      <c r="C10" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>68</v>
+      <c r="C11" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>60</v>
+      <c r="C12" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>59</v>
+      <c r="C13" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>67</v>
+        <v>31</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>59</v>
+      <c r="C20" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="15" t="s">
         <v>55</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>35</v>
+        <v>57</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>67</v>
+      <c r="C25" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>55</v>
+      <c r="C26" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>56</v>
+      <c r="C27" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>56</v>
+      <c r="C28" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>57</v>
+      <c r="C29" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>68</v>
+      <c r="C30" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>60</v>
+      <c r="C31" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>59</v>
+      <c r="C32" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>59</v>
+        <v>34</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>67</v>
+        <v>27</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>55</v>
+        <v>28</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>55</v>
+      <c r="C37" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>55</v>
+      <c r="C38" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -1007,50 +982,50 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>55</v>
+        <v>63</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>71</v>
+        <v>36</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>71</v>
+        <v>35</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>69</v>
+        <v>39</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -1060,18 +1035,18 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>72</v>
+        <v>40</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -1080,11 +1055,11 @@
       <c r="J46" s="6"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>57</v>
+      <c r="B47" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -1103,8 +1078,8 @@
       <c r="B49" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>67</v>
+      <c r="C49" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="1"/>
@@ -1114,10 +1089,10 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -1127,10 +1102,10 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -1142,8 +1117,8 @@
       <c r="B52" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>72</v>
+      <c r="C52" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -1155,8 +1130,8 @@
       <c r="B53" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>71</v>
+      <c r="C53" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -1168,8 +1143,8 @@
       <c r="B54" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>71</v>
+      <c r="C54" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -1179,10 +1154,10 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="15" t="s">
         <v>59</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -1201,48 +1176,48 @@
       <c r="B57" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="16" t="s">
-        <v>67</v>
+      <c r="C57" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>55</v>
+      <c r="C58" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>55</v>
+      <c r="C59" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>69</v>
+        <v>44</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1253,355 +1228,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J56"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="24.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F49" s="6"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-    </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-    </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-    </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Database/Construction_Working_Services_Database(final) (1).xlsx
+++ b/Database/Construction_Working_Services_Database(final) (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="DB_Schema" sheetId="2" r:id="rId1"/>
@@ -344,7 +344,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -383,6 +383,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
@@ -699,7 +700,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -709,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J62"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +756,7 @@
       <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="16" t="s">
         <v>49</v>
       </c>
     </row>
@@ -763,7 +764,7 @@
       <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="16" t="s">
         <v>49</v>
       </c>
     </row>
@@ -771,7 +772,7 @@
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -891,7 +892,7 @@
       <c r="B27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="16" t="s">
         <v>49</v>
       </c>
     </row>
@@ -899,7 +900,7 @@
       <c r="B28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="16" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1230,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/Database/Construction_Working_Services_Database(final) (1).xlsx
+++ b/Database/Construction_Working_Services_Database(final) (1).xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>Project Name</t>
   </si>
@@ -148,15 +148,9 @@
     <t>total_amount</t>
   </si>
   <si>
-    <t>discount</t>
-  </si>
-  <si>
     <t>service_address</t>
   </si>
   <si>
-    <t>service_contact_person</t>
-  </si>
-  <si>
     <t>booking_id (F)</t>
   </si>
   <si>
@@ -230,6 +224,9 @@
   </si>
   <si>
     <t>booking_id (fk)</t>
+  </si>
+  <si>
+    <t>customer_contact_person</t>
   </si>
 </sst>
 </file>
@@ -700,7 +697,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -708,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J62"/>
+  <dimension ref="B2:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,15 +738,15 @@
         <v>30</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -757,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -765,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -773,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -781,7 +778,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
@@ -789,7 +786,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -797,23 +794,23 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -821,15 +818,15 @@
         <v>31</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -837,7 +834,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -845,20 +842,20 @@
         <v>19</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>33</v>
@@ -866,10 +863,10 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -877,7 +874,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -885,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -893,7 +890,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -901,7 +898,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -909,7 +906,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -917,7 +914,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -925,7 +922,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -933,7 +930,7 @@
         <v>17</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -941,7 +938,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
@@ -949,7 +946,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
@@ -957,7 +954,7 @@
         <v>28</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -965,7 +962,7 @@
         <v>20</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
@@ -973,7 +970,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -983,10 +980,10 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
@@ -994,7 +991,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -1010,44 +1007,44 @@
         <v>35</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>62</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
-        <v>40</v>
+      <c r="B46" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -1056,12 +1053,6 @@
       <c r="J46" s="6"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -1069,31 +1060,37 @@
       <c r="J47" s="6"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="G48" s="1"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>60</v>
+      <c r="B49" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -1103,10 +1100,10 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -1116,10 +1113,10 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -1129,10 +1126,10 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -1142,10 +1139,10 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -1154,12 +1151,6 @@
       <c r="J54" s="6"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -1167,58 +1158,51 @@
       <c r="J55" s="6"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
+      <c r="B56" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>60</v>
+      <c r="B57" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
